--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/123/word_level_predictions_123.xlsx
@@ -5182,208 +5182,208 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,522 +11474,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>12</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>5</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" s="2" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>12</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>12</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>12</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>8</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>12</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>9</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>12</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>12</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>12</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>12</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>13</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>12</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>14</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F247" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G247" s="2" t="b">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="L247" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/123/word_level_predictions_123.xlsx
@@ -5182,208 +5182,208 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="D92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,522 +11474,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>12</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>16</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>12</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>17</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>12</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>18</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>12</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>19</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>12</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>20</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>12</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>21</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>12</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>22</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>12</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>23</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>12</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>24</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>12</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>25</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>12</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>26</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>12</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>27</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>12</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>28</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>12</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>29</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F247" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G247" s="2" t="b">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="L247" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
